--- a/uploads/13-09-2021-8.xlsx
+++ b/uploads/13-09-2021-8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Apoteka BAŠČARŠIJA</t>
   </si>
@@ -123,12 +123,6 @@
   </si>
   <si>
     <t>Hajra Eskić</t>
-  </si>
-  <si>
-    <t>1030 100</t>
-  </si>
-  <si>
-    <t>PR_1</t>
   </si>
   <si>
     <t>Da</t>
@@ -1247,20 +1241,20 @@
       </c>
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
-      <c r="Q14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>36</v>
+      <c r="Q14" s="24">
+        <v>1030</v>
+      </c>
+      <c r="R14" s="24">
+        <v>1030</v>
+      </c>
+      <c r="S14" s="24">
+        <v>1030</v>
+      </c>
+      <c r="T14" s="24">
+        <v>1030</v>
+      </c>
+      <c r="U14" s="24">
+        <v>1030</v>
       </c>
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
@@ -1271,11 +1265,9 @@
         <v>7.5</v>
       </c>
       <c r="Z14" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="AA14" s="24">
-        <v>7.5</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="AA14" s="24"/>
       <c r="AB14" s="24">
         <v>7.5</v>
       </c>
@@ -1284,23 +1276,23 @@
       <c r="AE14" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF14" s="24" t="s">
+      <c r="AF14" s="24">
+        <v>1026</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="AH14" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AG14" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="AH14" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ14" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="AK14" s="20">
-        <v>165.0</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="15" spans="1:37">
@@ -1310,7 +1302,7 @@
         <v>2011</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -1334,7 +1326,9 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
+      <c r="AA15" s="24">
+        <v>5.5</v>
+      </c>
       <c r="AB15" s="24"/>
       <c r="AC15" s="26"/>
       <c r="AD15" s="26"/>
@@ -1439,7 +1433,7 @@
         <v>2013</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1482,7 +1476,7 @@
         <v>2015</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -1525,7 +1519,7 @@
         <v>2014</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -1566,7 +1560,7 @@
         <v>104</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="28">
         <v>1010</v>
@@ -1639,8 +1633,8 @@
       <c r="AE21" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF21" s="24" t="s">
-        <v>37</v>
+      <c r="AF21" s="24">
+        <v>1026</v>
       </c>
       <c r="AG21" s="24">
         <v>7.5</v>
@@ -1661,7 +1655,7 @@
         <v>2011</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -1790,7 +1784,7 @@
         <v>2013</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -1833,7 +1827,7 @@
         <v>2015</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -1876,7 +1870,7 @@
         <v>2014</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -1917,7 +1911,7 @@
         <v>310</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="28">
         <v>1010</v>
@@ -1990,8 +1984,8 @@
       <c r="AE28" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF28" s="24" t="s">
-        <v>37</v>
+      <c r="AF28" s="24">
+        <v>1026</v>
       </c>
       <c r="AG28" s="24">
         <v>7.5</v>
@@ -2012,7 +2006,7 @@
         <v>2011</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -2141,7 +2135,7 @@
         <v>2013</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -2184,7 +2178,7 @@
         <v>2015</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -2227,7 +2221,7 @@
         <v>2014</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
@@ -2268,7 +2262,7 @@
         <v>402</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="28">
         <v>1010</v>
@@ -2341,8 +2335,8 @@
       <c r="AE35" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF35" s="24" t="s">
-        <v>37</v>
+      <c r="AF35" s="24">
+        <v>1026</v>
       </c>
       <c r="AG35" s="24">
         <v>7.5</v>
@@ -2363,7 +2357,7 @@
         <v>2011</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -2492,7 +2486,7 @@
         <v>2013</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -2535,7 +2529,7 @@
         <v>2015</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -2578,7 +2572,7 @@
         <v>2014</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
@@ -2619,7 +2613,7 @@
         <v>463</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="28">
         <v>1010</v>
@@ -2692,8 +2686,8 @@
       <c r="AE42" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF42" s="24" t="s">
-        <v>37</v>
+      <c r="AF42" s="24">
+        <v>1026</v>
       </c>
       <c r="AG42" s="24">
         <v>7.5</v>
@@ -2714,7 +2708,7 @@
         <v>2011</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -2843,7 +2837,7 @@
         <v>2013</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -2886,7 +2880,7 @@
         <v>2015</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -2929,7 +2923,7 @@
         <v>2014</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
@@ -2970,7 +2964,7 @@
         <v>506</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" s="28">
         <v>1010</v>
@@ -3043,8 +3037,8 @@
       <c r="AE49" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF49" s="24" t="s">
-        <v>37</v>
+      <c r="AF49" s="24">
+        <v>1026</v>
       </c>
       <c r="AG49" s="24">
         <v>7.5</v>
@@ -3065,7 +3059,7 @@
         <v>2011</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -3194,7 +3188,7 @@
         <v>2013</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -3237,7 +3231,7 @@
         <v>2015</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -3280,7 +3274,7 @@
         <v>2014</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
@@ -3321,7 +3315,7 @@
         <v>532</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="28">
         <v>1010</v>
@@ -3394,8 +3388,8 @@
       <c r="AE56" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF56" s="24" t="s">
-        <v>37</v>
+      <c r="AF56" s="24">
+        <v>1026</v>
       </c>
       <c r="AG56" s="24">
         <v>7.5</v>
@@ -3416,7 +3410,7 @@
         <v>2011</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -3545,7 +3539,7 @@
         <v>2013</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -3588,7 +3582,7 @@
         <v>2015</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -3631,7 +3625,7 @@
         <v>2014</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
@@ -3672,7 +3666,7 @@
         <v>571</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C63" s="28">
         <v>1010</v>
@@ -3745,8 +3739,8 @@
       <c r="AE63" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF63" s="24" t="s">
-        <v>37</v>
+      <c r="AF63" s="24">
+        <v>1026</v>
       </c>
       <c r="AG63" s="24">
         <v>7.5</v>
@@ -3767,7 +3761,7 @@
         <v>2011</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -3896,7 +3890,7 @@
         <v>2013</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -3939,7 +3933,7 @@
         <v>2015</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -3982,7 +3976,7 @@
         <v>2014</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
@@ -4023,7 +4017,7 @@
         <v>574</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" s="28">
         <v>1010</v>
@@ -4096,8 +4090,8 @@
       <c r="AE70" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF70" s="24" t="s">
-        <v>37</v>
+      <c r="AF70" s="24">
+        <v>1026</v>
       </c>
       <c r="AG70" s="24">
         <v>7.5</v>
@@ -4118,7 +4112,7 @@
         <v>2011</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -4247,7 +4241,7 @@
         <v>2013</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -4290,7 +4284,7 @@
         <v>2015</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -4333,7 +4327,7 @@
         <v>2014</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
@@ -4374,7 +4368,7 @@
         <v>579</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C77" s="28">
         <v>1010</v>
@@ -4447,8 +4441,8 @@
       <c r="AE77" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF77" s="24" t="s">
-        <v>37</v>
+      <c r="AF77" s="24">
+        <v>1026</v>
       </c>
       <c r="AG77" s="24">
         <v>7.5</v>
@@ -4469,7 +4463,7 @@
         <v>2011</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -4598,7 +4592,7 @@
         <v>2013</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
@@ -4641,7 +4635,7 @@
         <v>2015</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
@@ -4684,7 +4678,7 @@
         <v>2014</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
@@ -4725,7 +4719,7 @@
         <v>611</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C84" s="28">
         <v>1010</v>
@@ -4798,8 +4792,8 @@
       <c r="AE84" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF84" s="24" t="s">
-        <v>37</v>
+      <c r="AF84" s="24">
+        <v>1026</v>
       </c>
       <c r="AG84" s="24">
         <v>7.5</v>
@@ -4820,7 +4814,7 @@
         <v>2011</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -4949,7 +4943,7 @@
         <v>2013</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -4992,7 +4986,7 @@
         <v>2015</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -5035,7 +5029,7 @@
         <v>2014</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
@@ -5076,7 +5070,7 @@
         <v>634</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C91" s="28">
         <v>1010</v>
@@ -5149,8 +5143,8 @@
       <c r="AE91" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF91" s="24" t="s">
-        <v>37</v>
+      <c r="AF91" s="24">
+        <v>1026</v>
       </c>
       <c r="AG91" s="24">
         <v>7.5</v>
@@ -5171,7 +5165,7 @@
         <v>2011</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -5300,7 +5294,7 @@
         <v>2013</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
@@ -5343,7 +5337,7 @@
         <v>2015</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -5386,7 +5380,7 @@
         <v>2014</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
@@ -5427,7 +5421,7 @@
         <v>638</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C98" s="28">
         <v>1010</v>
@@ -5500,8 +5494,8 @@
       <c r="AE98" s="24">
         <v>7.5</v>
       </c>
-      <c r="AF98" s="24" t="s">
-        <v>37</v>
+      <c r="AF98" s="24">
+        <v>1026</v>
       </c>
       <c r="AG98" s="24">
         <v>7.5</v>
@@ -5522,7 +5516,7 @@
         <v>2011</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -5651,7 +5645,7 @@
         <v>2013</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -5694,7 +5688,7 @@
         <v>2015</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -5737,7 +5731,7 @@
         <v>2014</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
